--- a/BalanceSheet/ICE_bal.xlsx
+++ b/BalanceSheet/ICE_bal.xlsx
@@ -4859,7 +4859,7 @@
         <v>7013000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>6369000000.0</v>
+        <v>6088000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>4896000000.0</v>
@@ -4986,7 +4986,7 @@
         <v>8595000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>8153000000.0</v>
+        <v>7872000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>6496000000.0</v>
